--- a/Kode/Server2/Logs/lora_node2/2020-05-21.xlsx
+++ b/Kode/Server2/Logs/lora_node2/2020-05-21.xlsx
@@ -403,7 +403,7 @@
         <v>158.835</v>
       </c>
       <c r="F2" t="n">
-        <v>359.6024400000001</v>
+        <v>359602.4400000001</v>
       </c>
     </row>
     <row r="3">
@@ -423,7 +423,7 @@
         <v>149.34</v>
       </c>
       <c r="F3" t="n">
-        <v>336.91104</v>
+        <v>336911.04</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>146.1</v>
       </c>
       <c r="F4" t="n">
-        <v>329.0172</v>
+        <v>329017.2</v>
       </c>
     </row>
     <row r="5">
@@ -463,7 +463,7 @@
         <v>148.74</v>
       </c>
       <c r="F5" t="n">
-        <v>335.55744</v>
+        <v>335557.44</v>
       </c>
     </row>
     <row r="6">
@@ -483,7 +483,7 @@
         <v>149.385</v>
       </c>
       <c r="F6" t="n">
-        <v>337.01256</v>
+        <v>337012.56</v>
       </c>
     </row>
     <row r="7">
@@ -503,7 +503,7 @@
         <v>141.27</v>
       </c>
       <c r="F7" t="n">
-        <v>318.14004</v>
+        <v>318140.04</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         <v>136.875</v>
       </c>
       <c r="F8" t="n">
-        <v>306.6</v>
+        <v>306600</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         <v>134.175</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1621</v>
+        <v>302162.1</v>
       </c>
     </row>
     <row r="10">
@@ -563,7 +563,7 @@
         <v>141.69</v>
       </c>
       <c r="F10" t="n">
-        <v>318.51912</v>
+        <v>318519.12</v>
       </c>
     </row>
     <row r="11">
@@ -583,7 +583,7 @@
         <v>145.62</v>
       </c>
       <c r="F11" t="n">
-        <v>327.9362400000001</v>
+        <v>327936.2400000001</v>
       </c>
     </row>
     <row r="12">
@@ -603,7 +603,7 @@
         <v>136.74</v>
       </c>
       <c r="F12" t="n">
-        <v>306.8445600000001</v>
+        <v>306844.5600000001</v>
       </c>
     </row>
     <row r="13">
@@ -623,7 +623,7 @@
         <v>134.115</v>
       </c>
       <c r="F13" t="n">
-        <v>300.4176</v>
+        <v>300417.6</v>
       </c>
     </row>
     <row r="14">
@@ -643,7 +643,7 @@
         <v>136.185</v>
       </c>
       <c r="F14" t="n">
-        <v>306.14388</v>
+        <v>306143.88</v>
       </c>
     </row>
     <row r="15">
@@ -663,7 +663,7 @@
         <v>143.265</v>
       </c>
       <c r="F15" t="n">
-        <v>322.63278</v>
+        <v>322632.78</v>
       </c>
     </row>
     <row r="16">
@@ -683,7 +683,7 @@
         <v>148.215</v>
       </c>
       <c r="F16" t="n">
-        <v>334.3730400000001</v>
+        <v>334373.0400000001</v>
       </c>
     </row>
     <row r="17">
@@ -703,7 +703,7 @@
         <v>137.175</v>
       </c>
       <c r="F17" t="n">
-        <v>308.3694</v>
+        <v>308369.4</v>
       </c>
     </row>
     <row r="18">
@@ -723,7 +723,7 @@
         <v>139.485</v>
       </c>
       <c r="F18" t="n">
-        <v>314.12022</v>
+        <v>314120.22</v>
       </c>
     </row>
     <row r="19">
@@ -743,7 +743,7 @@
         <v>136.545</v>
       </c>
       <c r="F19" t="n">
-        <v>306.95316</v>
+        <v>306953.16</v>
       </c>
     </row>
     <row r="20">
@@ -763,7 +763,7 @@
         <v>140.835</v>
       </c>
       <c r="F20" t="n">
-        <v>317.72376</v>
+        <v>317723.76</v>
       </c>
     </row>
     <row r="21">
@@ -783,7 +783,7 @@
         <v>139.2</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3648</v>
+        <v>312364.8</v>
       </c>
     </row>
     <row r="22">
@@ -803,7 +803,7 @@
         <v>132.33</v>
       </c>
       <c r="F22" t="n">
-        <v>296.4192</v>
+        <v>296419.2</v>
       </c>
     </row>
     <row r="23">
@@ -823,7 +823,7 @@
         <v>125.805</v>
       </c>
       <c r="F23" t="n">
-        <v>282.30642</v>
+        <v>282306.42</v>
       </c>
     </row>
     <row r="24">
@@ -843,7 +843,7 @@
         <v>123.075</v>
       </c>
       <c r="F24" t="n">
-        <v>275.1957</v>
+        <v>275195.7</v>
       </c>
     </row>
     <row r="25">
@@ -863,7 +863,7 @@
         <v>120.975</v>
       </c>
       <c r="F25" t="n">
-        <v>270.5001</v>
+        <v>270500.1</v>
       </c>
     </row>
     <row r="26">
@@ -883,7 +883,7 @@
         <v>119.955</v>
       </c>
       <c r="F26" t="n">
-        <v>267.25974</v>
+        <v>267259.74</v>
       </c>
     </row>
     <row r="27">
@@ -903,7 +903,7 @@
         <v>119.565</v>
       </c>
       <c r="F27" t="n">
-        <v>266.86908</v>
+        <v>266869.08</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
         <v>118.815</v>
       </c>
       <c r="F28" t="n">
-        <v>265.67034</v>
+        <v>265670.34</v>
       </c>
     </row>
     <row r="29">
@@ -943,7 +943,7 @@
         <v>117.105</v>
       </c>
       <c r="F29" t="n">
-        <v>260.90994</v>
+        <v>260909.94</v>
       </c>
     </row>
     <row r="30">
@@ -963,7 +963,7 @@
         <v>116.64</v>
       </c>
       <c r="F30" t="n">
-        <v>260.34048</v>
+        <v>260340.48</v>
       </c>
     </row>
     <row r="31">
@@ -983,7 +983,7 @@
         <v>115.665</v>
       </c>
       <c r="F31" t="n">
-        <v>259.0896</v>
+        <v>259089.6</v>
       </c>
     </row>
     <row r="32">
@@ -1003,7 +1003,7 @@
         <v>115.47</v>
       </c>
       <c r="F32" t="n">
-        <v>257.26716</v>
+        <v>257267.16</v>
       </c>
     </row>
     <row r="33">
@@ -1023,7 +1023,7 @@
         <v>114.39</v>
       </c>
       <c r="F33" t="n">
-        <v>255.31848</v>
+        <v>255318.48</v>
       </c>
     </row>
     <row r="34">
@@ -1043,7 +1043,7 @@
         <v>114.78</v>
       </c>
       <c r="F34" t="n">
-        <v>256.64808</v>
+        <v>256648.08</v>
       </c>
     </row>
     <row r="35">
@@ -1063,7 +1063,7 @@
         <v>113.94</v>
       </c>
       <c r="F35" t="n">
-        <v>253.85832</v>
+        <v>253858.32</v>
       </c>
     </row>
     <row r="36">
@@ -1083,7 +1083,7 @@
         <v>113.775</v>
       </c>
       <c r="F36" t="n">
-        <v>253.4907</v>
+        <v>253490.7</v>
       </c>
     </row>
     <row r="37">
@@ -1103,7 +1103,7 @@
         <v>112.05</v>
       </c>
       <c r="F37" t="n">
-        <v>249.1992</v>
+        <v>249199.2</v>
       </c>
     </row>
     <row r="38">
@@ -1123,7 +1123,7 @@
         <v>122.805</v>
       </c>
       <c r="F38" t="n">
-        <v>273.11832</v>
+        <v>273118.32</v>
       </c>
     </row>
     <row r="39">
@@ -1143,7 +1143,7 @@
         <v>131.475</v>
       </c>
       <c r="F39" t="n">
-        <v>295.0299</v>
+        <v>295029.9</v>
       </c>
     </row>
     <row r="40">
@@ -1163,7 +1163,7 @@
         <v>159.315</v>
       </c>
       <c r="F40" t="n">
-        <v>360.0519</v>
+        <v>360051.9</v>
       </c>
     </row>
     <row r="41">
@@ -1183,7 +1183,7 @@
         <v>184.23</v>
       </c>
       <c r="F41" t="n">
-        <v>420.7813200000001</v>
+        <v>420781.3200000001</v>
       </c>
     </row>
     <row r="42">
@@ -1203,7 +1203,7 @@
         <v>186.66</v>
       </c>
       <c r="F42" t="n">
-        <v>427.0780800000001</v>
+        <v>427078.0800000001</v>
       </c>
     </row>
     <row r="43">
@@ -1223,7 +1223,7 @@
         <v>173.085</v>
       </c>
       <c r="F43" t="n">
-        <v>393.94146</v>
+        <v>393941.46</v>
       </c>
     </row>
     <row r="44">
@@ -1243,7 +1243,7 @@
         <v>147.975</v>
       </c>
       <c r="F44" t="n">
-        <v>333.2397</v>
+        <v>333239.7</v>
       </c>
     </row>
     <row r="45">
@@ -1263,7 +1263,7 @@
         <v>140.385</v>
       </c>
       <c r="F45" t="n">
-        <v>316.14702</v>
+        <v>316147.02</v>
       </c>
     </row>
     <row r="46">
@@ -1283,7 +1283,7 @@
         <v>140.805</v>
       </c>
       <c r="F46" t="n">
-        <v>317.09286</v>
+        <v>317092.86</v>
       </c>
     </row>
     <row r="47">
@@ -1303,7 +1303,7 @@
         <v>156.675</v>
       </c>
       <c r="F47" t="n">
-        <v>354.0855</v>
+        <v>354085.5</v>
       </c>
     </row>
     <row r="48">
@@ -1323,7 +1323,7 @@
         <v>194.25</v>
       </c>
       <c r="F48" t="n">
-        <v>444.4440000000001</v>
+        <v>444444.0000000001</v>
       </c>
     </row>
     <row r="49">
@@ -1343,7 +1343,7 @@
         <v>214.29</v>
       </c>
       <c r="F49" t="n">
-        <v>492.867</v>
+        <v>492867</v>
       </c>
     </row>
     <row r="50">
@@ -1363,7 +1363,7 @@
         <v>207.06</v>
       </c>
       <c r="F50" t="n">
-        <v>475.4097600000001</v>
+        <v>475409.7600000001</v>
       </c>
     </row>
     <row r="51">
@@ -1383,7 +1383,7 @@
         <v>204.81</v>
       </c>
       <c r="F51" t="n">
-        <v>470.2437600000001</v>
+        <v>470243.7600000001</v>
       </c>
     </row>
     <row r="52">
@@ -1403,7 +1403,7 @@
         <v>190.815</v>
       </c>
       <c r="F52" t="n">
-        <v>435.8214600000001</v>
+        <v>435821.4600000001</v>
       </c>
     </row>
     <row r="53">
@@ -1423,7 +1423,7 @@
         <v>180.12</v>
       </c>
       <c r="F53" t="n">
-        <v>404.9097600000001</v>
+        <v>404909.7600000001</v>
       </c>
     </row>
     <row r="54">
@@ -2123,7 +2123,7 @@
         <v>230.07</v>
       </c>
       <c r="F88" t="n">
-        <v>522.7190400000001</v>
+        <v>522719.04</v>
       </c>
     </row>
     <row r="89">
@@ -2143,7 +2143,7 @@
         <v>107.865</v>
       </c>
       <c r="F89" t="n">
-        <v>134.18406</v>
+        <v>134184.06</v>
       </c>
     </row>
     <row r="90">
@@ -2163,7 +2163,7 @@
         <v>228.33</v>
       </c>
       <c r="F90" t="n">
-        <v>528.8122799999999</v>
+        <v>528812.2799999999</v>
       </c>
     </row>
     <row r="91">
@@ -2183,7 +2183,7 @@
         <v>222.495</v>
       </c>
       <c r="F91" t="n">
-        <v>514.4084399999999</v>
+        <v>514408.4399999999</v>
       </c>
     </row>
     <row r="92">
@@ -2203,7 +2203,7 @@
         <v>210.87</v>
       </c>
       <c r="F92" t="n">
-        <v>485.0010000000001</v>
+        <v>485001.0000000001</v>
       </c>
     </row>
     <row r="93">
@@ -2223,7 +2223,7 @@
         <v>201.72</v>
       </c>
       <c r="F93" t="n">
-        <v>461.53536</v>
+        <v>461535.36</v>
       </c>
     </row>
     <row r="94">
@@ -2243,7 +2243,7 @@
         <v>174.33</v>
       </c>
       <c r="F94" t="n">
-        <v>396.07776</v>
+        <v>396077.76</v>
       </c>
     </row>
     <row r="95">
@@ -2263,7 +2263,7 @@
         <v>166.005</v>
       </c>
       <c r="F95" t="n">
-        <v>376.49934</v>
+        <v>376499.34</v>
       </c>
     </row>
     <row r="96">
@@ -2283,7 +2283,7 @@
         <v>189.405</v>
       </c>
       <c r="F96" t="n">
-        <v>432.6010200000001</v>
+        <v>432601.0200000001</v>
       </c>
     </row>
     <row r="97">
@@ -2303,7 +2303,7 @@
         <v>213.57</v>
       </c>
       <c r="F97" t="n">
-        <v>491.2110000000001</v>
+        <v>491211.0000000001</v>
       </c>
     </row>
     <row r="98">
@@ -2323,7 +2323,7 @@
         <v>180.96</v>
       </c>
       <c r="F98" t="n">
-        <v>411.86496</v>
+        <v>411864.96</v>
       </c>
     </row>
     <row r="99">
@@ -2343,7 +2343,7 @@
         <v>181.245</v>
       </c>
       <c r="F99" t="n">
-        <v>412.5136200000001</v>
+        <v>412513.6200000001</v>
       </c>
     </row>
     <row r="100">
@@ -2363,7 +2363,7 @@
         <v>178.575</v>
       </c>
       <c r="F100" t="n">
-        <v>406.4367</v>
+        <v>406436.7</v>
       </c>
     </row>
     <row r="101">
@@ -2383,7 +2383,7 @@
         <v>188.805</v>
       </c>
       <c r="F101" t="n">
-        <v>432.7410600000001</v>
+        <v>432741.0600000001</v>
       </c>
     </row>
     <row r="102">
@@ -2403,7 +2403,7 @@
         <v>202.905</v>
       </c>
       <c r="F102" t="n">
-        <v>466.6815000000001</v>
+        <v>466681.5000000001</v>
       </c>
     </row>
     <row r="103">
@@ -2423,7 +2423,7 @@
         <v>145.935</v>
       </c>
       <c r="F103" t="n">
-        <v>329.22936</v>
+        <v>329229.36</v>
       </c>
     </row>
     <row r="104">
@@ -2443,7 +2443,7 @@
         <v>145.74</v>
       </c>
       <c r="F104" t="n">
-        <v>327.04056</v>
+        <v>327040.5600000001</v>
       </c>
     </row>
     <row r="105">
@@ -2463,7 +2463,7 @@
         <v>145.5</v>
       </c>
       <c r="F105" t="n">
-        <v>328.248</v>
+        <v>328248</v>
       </c>
     </row>
     <row r="106">
@@ -2483,7 +2483,7 @@
         <v>167.19</v>
       </c>
       <c r="F106" t="n">
-        <v>0.37918692</v>
+        <v>379.18692</v>
       </c>
     </row>
     <row r="107">
@@ -2503,7 +2503,7 @@
         <v>151.2</v>
       </c>
       <c r="F107" t="n">
-        <v>0.3411072000000001</v>
+        <v>341.1072000000001</v>
       </c>
     </row>
     <row r="108">
@@ -2523,7 +2523,7 @@
         <v>141.27</v>
       </c>
       <c r="F108" t="n">
-        <v>0.31814004</v>
+        <v>318.14004</v>
       </c>
     </row>
     <row r="109">
@@ -2543,7 +2543,7 @@
         <v>133.365</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3003379800000001</v>
+        <v>300.3379800000001</v>
       </c>
     </row>
     <row r="110">
@@ -2563,7 +2563,7 @@
         <v>148.005</v>
       </c>
       <c r="F110" t="n">
-        <v>0.33389928</v>
+        <v>333.89928</v>
       </c>
     </row>
     <row r="111">
@@ -2583,7 +2583,7 @@
         <v>147.225</v>
       </c>
       <c r="F111" t="n">
-        <v>0.3321396</v>
+        <v>332.1396</v>
       </c>
     </row>
     <row r="112">
@@ -2603,7 +2603,7 @@
         <v>133.32</v>
       </c>
       <c r="F112" t="n">
-        <v>0.29970336</v>
+        <v>299.70336</v>
       </c>
     </row>
     <row r="113">
@@ -2623,7 +2623,7 @@
         <v>197.865</v>
       </c>
       <c r="F113" t="n">
-        <v>0.45429804</v>
+        <v>454.29804</v>
       </c>
     </row>
     <row r="114">
@@ -2643,7 +2643,7 @@
         <v>190.185</v>
       </c>
       <c r="F114" t="n">
-        <v>0.43438254</v>
+        <v>434.38254</v>
       </c>
     </row>
     <row r="115">
@@ -2663,7 +2663,7 @@
         <v>140.01</v>
       </c>
       <c r="F115" t="n">
-        <v>0.31530252</v>
+        <v>315.30252</v>
       </c>
     </row>
     <row r="116">
@@ -2683,7 +2683,7 @@
         <v>198.09</v>
       </c>
       <c r="F116" t="n">
-        <v>0.45481464</v>
+        <v>454.81464</v>
       </c>
     </row>
     <row r="117">
@@ -2703,7 +2703,7 @@
         <v>175.92</v>
       </c>
       <c r="F117" t="n">
-        <v>0.40039392</v>
+        <v>400.39392</v>
       </c>
     </row>
     <row r="118">
@@ -2723,7 +2723,7 @@
         <v>188.655</v>
       </c>
       <c r="F118" t="n">
-        <v>0.43088802</v>
+        <v>430.88802</v>
       </c>
     </row>
     <row r="119">
@@ -2743,7 +2743,7 @@
         <v>152.985</v>
       </c>
       <c r="F119" t="n">
-        <v>0.34513416</v>
+        <v>345.13416</v>
       </c>
     </row>
     <row r="120">
@@ -2763,7 +2763,7 @@
         <v>160.455</v>
       </c>
       <c r="F120" t="n">
-        <v>0.36327012</v>
+        <v>363.27012</v>
       </c>
     </row>
     <row r="121">
@@ -2783,7 +2783,7 @@
         <v>128.985</v>
       </c>
       <c r="F121" t="n">
-        <v>0.2889264</v>
+        <v>288.9264</v>
       </c>
     </row>
     <row r="122">
@@ -2803,7 +2803,7 @@
         <v>118.38</v>
       </c>
       <c r="F122" t="n">
-        <v>0.24480984</v>
+        <v>244.80984</v>
       </c>
     </row>
     <row r="123">
@@ -2823,7 +2823,7 @@
         <v>129.6</v>
       </c>
       <c r="F123" t="n">
-        <v>0.290304</v>
+        <v>290.304</v>
       </c>
     </row>
     <row r="124">
@@ -2843,7 +2843,7 @@
         <v>130.08</v>
       </c>
       <c r="F124" t="n">
-        <v>0.2913791999999999</v>
+        <v>291.3791999999999</v>
       </c>
     </row>
     <row r="125">
@@ -2863,7 +2863,7 @@
         <v>147.165</v>
       </c>
       <c r="F125" t="n">
-        <v>0.33141558</v>
+        <v>331.41558</v>
       </c>
     </row>
     <row r="126">
@@ -2883,7 +2883,7 @@
         <v>174.39</v>
       </c>
       <c r="F126" t="n">
-        <v>0.39621408</v>
+        <v>396.21408</v>
       </c>
     </row>
     <row r="127">
@@ -2903,7 +2903,7 @@
         <v>165.81</v>
       </c>
       <c r="F127" t="n">
-        <v>0.38202624</v>
+        <v>382.02624</v>
       </c>
     </row>
     <row r="128">
@@ -2923,7 +2923,7 @@
         <v>202.635</v>
       </c>
       <c r="F128" t="n">
-        <v>0.46443942</v>
+        <v>464.43942</v>
       </c>
     </row>
     <row r="129">
@@ -2943,7 +2943,7 @@
         <v>203.28</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4651046400000001</v>
+        <v>465.1046400000001</v>
       </c>
     </row>
     <row r="130">
@@ -2963,7 +2963,7 @@
         <v>210.36</v>
       </c>
       <c r="F130" t="n">
-        <v>0.48298656</v>
+        <v>482.98656</v>
       </c>
     </row>
     <row r="131">
@@ -2983,7 +2983,7 @@
         <v>163.89</v>
       </c>
       <c r="F131" t="n">
-        <v>0.37170252</v>
+        <v>371.70252</v>
       </c>
     </row>
     <row r="132">
@@ -3003,7 +3003,7 @@
         <v>161.235</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3643911</v>
+        <v>364.3911000000001</v>
       </c>
     </row>
     <row r="133">
@@ -3023,7 +3023,7 @@
         <v>184.305</v>
       </c>
       <c r="F133" t="n">
-        <v>0.4202154000000001</v>
+        <v>420.2154000000001</v>
       </c>
     </row>
     <row r="134">
@@ -3043,7 +3043,7 @@
         <v>174.465</v>
       </c>
       <c r="F134" t="n">
-        <v>0.39708234</v>
+        <v>397.08234</v>
       </c>
     </row>
     <row r="135">
@@ -3063,7 +3063,7 @@
         <v>174.51</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3964867200000001</v>
+        <v>396.4867200000001</v>
       </c>
     </row>
     <row r="136">
@@ -3083,7 +3083,7 @@
         <v>160.275</v>
       </c>
       <c r="F136" t="n">
-        <v>0.3635037</v>
+        <v>363.5037</v>
       </c>
     </row>
     <row r="137">
@@ -3103,7 +3103,7 @@
         <v>135.855</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3043152</v>
+        <v>304.3152</v>
       </c>
     </row>
     <row r="138">
@@ -3123,7 +3123,7 @@
         <v>156.915</v>
       </c>
       <c r="F138" t="n">
-        <v>0.3546279</v>
+        <v>354.6279</v>
       </c>
     </row>
     <row r="139">
@@ -3143,7 +3143,7 @@
         <v>172.155</v>
       </c>
       <c r="F139" t="n">
-        <v>0.39113616</v>
+        <v>391.13616</v>
       </c>
     </row>
     <row r="140">
@@ -3163,7 +3163,7 @@
         <v>201.795</v>
       </c>
       <c r="F140" t="n">
-        <v>0.46332132</v>
+        <v>463.32132</v>
       </c>
     </row>
     <row r="141">
@@ -3183,7 +3183,7 @@
         <v>198.27</v>
       </c>
       <c r="F141" t="n">
-        <v>0.45522792</v>
+        <v>455.22792</v>
       </c>
     </row>
     <row r="142">
@@ -3203,7 +3203,7 @@
         <v>194.235</v>
       </c>
       <c r="F142" t="n">
-        <v>0.44363274</v>
+        <v>443.63274</v>
       </c>
     </row>
     <row r="143">
@@ -3223,7 +3223,7 @@
         <v>192.765</v>
       </c>
       <c r="F143" t="n">
-        <v>0.44104632</v>
+        <v>441.04632</v>
       </c>
     </row>
     <row r="144">
@@ -3243,7 +3243,7 @@
         <v>190.275</v>
       </c>
       <c r="F144" t="n">
-        <v>0.4353492</v>
+        <v>435.3492</v>
       </c>
     </row>
     <row r="145">
@@ -3263,7 +3263,7 @@
         <v>191.04</v>
       </c>
       <c r="F145" t="n">
-        <v>0.43709952</v>
+        <v>437.09952</v>
       </c>
     </row>
     <row r="146">
@@ -3283,7 +3283,7 @@
         <v>179.865</v>
       </c>
       <c r="F146" t="n">
-        <v>0.4100922</v>
+        <v>410.0922</v>
       </c>
     </row>
     <row r="147">
@@ -3303,7 +3303,7 @@
         <v>188.91</v>
       </c>
       <c r="F147" t="n">
-        <v>0.4329817200000001</v>
+        <v>432.9817200000001</v>
       </c>
     </row>
     <row r="148">
@@ -3323,7 +3323,7 @@
         <v>195.96</v>
       </c>
       <c r="F148" t="n">
-        <v>0.44914032</v>
+        <v>449.14032</v>
       </c>
     </row>
     <row r="149">
@@ -3343,7 +3343,7 @@
         <v>189.495</v>
       </c>
       <c r="F149" t="n">
-        <v>0.4328065800000001</v>
+        <v>432.8065800000001</v>
       </c>
     </row>
     <row r="150">
@@ -3363,7 +3363,7 @@
         <v>189.21</v>
       </c>
       <c r="F150" t="n">
-        <v>0.43215564</v>
+        <v>432.15564</v>
       </c>
     </row>
     <row r="151">
@@ -3383,7 +3383,7 @@
         <v>160.275</v>
       </c>
       <c r="F151" t="n">
-        <v>0.3622215</v>
+        <v>362.2215</v>
       </c>
     </row>
     <row r="152">
@@ -3403,7 +3403,7 @@
         <v>158.235</v>
       </c>
       <c r="F152" t="n">
-        <v>0.35824404</v>
+        <v>358.24404</v>
       </c>
     </row>
     <row r="153">
@@ -3423,7 +3423,7 @@
         <v>130.485</v>
       </c>
       <c r="F153" t="n">
-        <v>0.2922864</v>
+        <v>292.2864</v>
       </c>
     </row>
     <row r="154">
@@ -3443,7 +3443,7 @@
         <v>136.44</v>
       </c>
       <c r="F154" t="n">
-        <v>0.3061713600000001</v>
+        <v>306.1713600000001</v>
       </c>
     </row>
     <row r="155">
@@ -3463,7 +3463,7 @@
         <v>131.76</v>
       </c>
       <c r="F155" t="n">
-        <v>0.2951424</v>
+        <v>295.1424</v>
       </c>
     </row>
     <row r="156">
@@ -3483,7 +3483,7 @@
         <v>136.02</v>
       </c>
       <c r="F156" t="n">
-        <v>0.30522888</v>
+        <v>305.22888</v>
       </c>
     </row>
     <row r="157">
@@ -3503,7 +3503,7 @@
         <v>129.045</v>
       </c>
       <c r="F157" t="n">
-        <v>0.28854462</v>
+        <v>288.54462</v>
       </c>
     </row>
     <row r="158">
@@ -3523,7 +3523,7 @@
         <v>143.955</v>
       </c>
       <c r="F158" t="n">
-        <v>0.32476248</v>
+        <v>324.76248</v>
       </c>
     </row>
     <row r="159">
@@ -3543,7 +3543,7 @@
         <v>157.575</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3567498</v>
+        <v>356.7498</v>
       </c>
     </row>
     <row r="160">
@@ -3563,7 +3563,7 @@
         <v>124.785</v>
       </c>
       <c r="F160" t="n">
-        <v>0.27901926</v>
+        <v>279.01926</v>
       </c>
     </row>
     <row r="161">
@@ -3583,7 +3583,7 @@
         <v>133.68</v>
       </c>
       <c r="F161" t="n">
-        <v>0.2999779200000001</v>
+        <v>299.9779200000001</v>
       </c>
     </row>
     <row r="162">
@@ -3603,7 +3603,7 @@
         <v>144.72</v>
       </c>
       <c r="F162" t="n">
-        <v>0.32533056</v>
+        <v>325.33056</v>
       </c>
     </row>
     <row r="163">
@@ -3623,7 +3623,7 @@
         <v>156.72</v>
       </c>
       <c r="F163" t="n">
-        <v>0.3541872</v>
+        <v>354.1872</v>
       </c>
     </row>
     <row r="164">
@@ -3643,7 +3643,7 @@
         <v>136.56</v>
       </c>
       <c r="F164" t="n">
-        <v>0.30644064</v>
+        <v>306.44064</v>
       </c>
     </row>
     <row r="165">
@@ -3663,7 +3663,7 @@
         <v>124.92</v>
       </c>
       <c r="F165" t="n">
-        <v>0.2798208</v>
+        <v>279.8208</v>
       </c>
     </row>
     <row r="166">
@@ -3683,7 +3683,7 @@
         <v>119.91</v>
       </c>
       <c r="F166" t="n">
-        <v>0.26811876</v>
+        <v>268.11876</v>
       </c>
     </row>
     <row r="167">
@@ -3703,7 +3703,7 @@
         <v>111.285</v>
       </c>
       <c r="F167" t="n">
-        <v>0.24749784</v>
+        <v>247.49784</v>
       </c>
     </row>
     <row r="168">
@@ -3723,7 +3723,7 @@
         <v>108.93</v>
       </c>
       <c r="F168" t="n">
-        <v>0.24269604</v>
+        <v>242.69604</v>
       </c>
     </row>
     <row r="169">
@@ -3743,7 +3743,7 @@
         <v>90.94499999999999</v>
       </c>
       <c r="F169" t="n">
-        <v>0.20117034</v>
+        <v>201.17034</v>
       </c>
     </row>
     <row r="170">
@@ -3763,7 +3763,7 @@
         <v>90.91499999999999</v>
       </c>
       <c r="F170" t="n">
-        <v>0.20074032</v>
+        <v>200.74032</v>
       </c>
     </row>
     <row r="171">
@@ -3783,7 +3783,7 @@
         <v>83.09999999999999</v>
       </c>
       <c r="F171" t="n">
-        <v>0.1834848</v>
+        <v>183.4848</v>
       </c>
     </row>
     <row r="172">
@@ -3803,7 +3803,7 @@
         <v>77.94</v>
       </c>
       <c r="F172" t="n">
-        <v>0.171468</v>
+        <v>171.468</v>
       </c>
     </row>
     <row r="173">
@@ -3823,7 +3823,7 @@
         <v>83.03999999999999</v>
       </c>
       <c r="F173" t="n">
-        <v>0.18335232</v>
+        <v>183.35232</v>
       </c>
     </row>
     <row r="174">
@@ -3843,7 +3843,7 @@
         <v>83.535</v>
       </c>
       <c r="F174" t="n">
-        <v>0.18411114</v>
+        <v>184.11114</v>
       </c>
     </row>
     <row r="175">
@@ -3863,7 +3863,7 @@
         <v>86.265</v>
       </c>
       <c r="F175" t="n">
-        <v>0.19116324</v>
+        <v>191.16324</v>
       </c>
     </row>
     <row r="176">
@@ -3883,7 +3883,7 @@
         <v>87.23999999999999</v>
       </c>
       <c r="F176" t="n">
-        <v>0.1954176</v>
+        <v>195.4176</v>
       </c>
     </row>
     <row r="177">
@@ -3903,7 +3903,7 @@
         <v>84.42</v>
       </c>
       <c r="F177" t="n">
-        <v>0.18639936</v>
+        <v>186.39936</v>
       </c>
     </row>
     <row r="178">
@@ -3923,7 +3923,7 @@
         <v>92.47499999999999</v>
       </c>
       <c r="F178" t="n">
-        <v>0.2049246</v>
+        <v>204.9246</v>
       </c>
     </row>
     <row r="179">
@@ -3943,7 +3943,7 @@
         <v>97.005</v>
       </c>
       <c r="F179" t="n">
-        <v>0.2153511</v>
+        <v>215.3511</v>
       </c>
     </row>
     <row r="180">
@@ -3963,7 +3963,7 @@
         <v>94.785</v>
       </c>
       <c r="F180" t="n">
-        <v>0.21004356</v>
+        <v>210.04356</v>
       </c>
     </row>
     <row r="181">
@@ -3983,7 +3983,7 @@
         <v>98.36999999999999</v>
       </c>
       <c r="F181" t="n">
-        <v>0.2183814</v>
+        <v>218.3814</v>
       </c>
     </row>
     <row r="182">
@@ -4003,7 +4003,7 @@
         <v>95.13</v>
       </c>
       <c r="F182" t="n">
-        <v>0.21080808</v>
+        <v>210.80808</v>
       </c>
     </row>
     <row r="183">
@@ -4023,7 +4023,7 @@
         <v>88.485</v>
       </c>
       <c r="F183" t="n">
-        <v>0.19572882</v>
+        <v>195.72882</v>
       </c>
     </row>
     <row r="184">
@@ -4043,7 +4043,7 @@
         <v>95.31</v>
       </c>
       <c r="F184" t="n">
-        <v>0.21120696</v>
+        <v>211.20696</v>
       </c>
     </row>
     <row r="185">
@@ -4063,7 +4063,7 @@
         <v>102.645</v>
       </c>
       <c r="F185" t="n">
-        <v>0.2278719</v>
+        <v>227.8719</v>
       </c>
     </row>
     <row r="186">
@@ -4083,7 +4083,7 @@
         <v>100.395</v>
       </c>
       <c r="F186" t="n">
-        <v>0.2228769</v>
+        <v>222.8769</v>
       </c>
     </row>
     <row r="187">
@@ -4103,7 +4103,7 @@
         <v>99.56999999999999</v>
       </c>
       <c r="F187" t="n">
-        <v>0.2210454</v>
+        <v>221.0454</v>
       </c>
     </row>
     <row r="188">
@@ -4123,7 +4123,7 @@
         <v>95.295</v>
       </c>
       <c r="F188" t="n">
-        <v>0.21117372</v>
+        <v>211.17372</v>
       </c>
     </row>
     <row r="189">
@@ -4143,7 +4143,7 @@
         <v>100.635</v>
       </c>
       <c r="F189" t="n">
-        <v>0.2234097</v>
+        <v>223.4097</v>
       </c>
     </row>
     <row r="190">
@@ -4163,7 +4163,7 @@
         <v>97.60499999999999</v>
       </c>
       <c r="F190" t="n">
-        <v>0.21629268</v>
+        <v>216.29268</v>
       </c>
     </row>
     <row r="191">
@@ -4183,7 +4183,7 @@
         <v>96.39</v>
       </c>
       <c r="F191" t="n">
-        <v>0.2139858</v>
+        <v>213.9858</v>
       </c>
     </row>
     <row r="192">
@@ -4203,7 +4203,7 @@
         <v>92.28</v>
       </c>
       <c r="F192" t="n">
-        <v>0.20449248</v>
+        <v>204.49248</v>
       </c>
     </row>
     <row r="193">
@@ -4223,7 +4223,7 @@
         <v>94.065</v>
       </c>
       <c r="F193" t="n">
-        <v>0.20844804</v>
+        <v>208.44804</v>
       </c>
     </row>
     <row r="194">
@@ -4243,7 +4243,7 @@
         <v>94.755</v>
       </c>
       <c r="F194" t="n">
-        <v>0.20997708</v>
+        <v>209.97708</v>
       </c>
     </row>
     <row r="195">
@@ -4263,7 +4263,7 @@
         <v>93.97499999999999</v>
       </c>
       <c r="F195" t="n">
-        <v>0.2082486</v>
+        <v>208.2486</v>
       </c>
     </row>
     <row r="196">
@@ -4283,7 +4283,7 @@
         <v>87.795</v>
       </c>
       <c r="F196" t="n">
-        <v>0.19385136</v>
+        <v>193.85136</v>
       </c>
     </row>
     <row r="197">
@@ -4303,7 +4303,7 @@
         <v>89.02499999999999</v>
       </c>
       <c r="F197" t="n">
-        <v>0.1969233</v>
+        <v>196.9233</v>
       </c>
     </row>
     <row r="198">
@@ -4323,7 +4323,7 @@
         <v>92.45999999999999</v>
       </c>
       <c r="F198" t="n">
-        <v>0.2052612</v>
+        <v>205.2612</v>
       </c>
     </row>
     <row r="199">
@@ -4343,7 +4343,7 @@
         <v>92.19</v>
       </c>
       <c r="F199" t="n">
-        <v>0.20392428</v>
+        <v>203.92428</v>
       </c>
     </row>
     <row r="200">
@@ -4363,7 +4363,7 @@
         <v>85.66499999999999</v>
       </c>
       <c r="F200" t="n">
-        <v>0.18914832</v>
+        <v>189.14832</v>
       </c>
     </row>
     <row r="201">
@@ -4383,7 +4383,7 @@
         <v>70.64999999999999</v>
       </c>
       <c r="F201" t="n">
-        <v>0.1548648</v>
+        <v>154.8648</v>
       </c>
     </row>
     <row r="202">
@@ -4403,7 +4403,7 @@
         <v>75.465</v>
       </c>
       <c r="F202" t="n">
-        <v>0.16632486</v>
+        <v>166.32486</v>
       </c>
     </row>
     <row r="203">
@@ -4423,7 +4423,7 @@
         <v>61.86</v>
       </c>
       <c r="F203" t="n">
-        <v>0.13633944</v>
+        <v>136.33944</v>
       </c>
     </row>
     <row r="204">
@@ -4443,7 +4443,7 @@
         <v>66.825</v>
       </c>
       <c r="F204" t="n">
-        <v>0.1472823</v>
+        <v>147.2823</v>
       </c>
     </row>
     <row r="205">
@@ -4463,7 +4463,7 @@
         <v>70.455</v>
       </c>
       <c r="F205" t="n">
-        <v>0.15471918</v>
+        <v>154.71918</v>
       </c>
     </row>
     <row r="206">
@@ -4483,7 +4483,7 @@
         <v>72.98999999999999</v>
       </c>
       <c r="F206" t="n">
-        <v>0.160578</v>
+        <v>160.578</v>
       </c>
     </row>
     <row r="207">
@@ -4503,7 +4503,7 @@
         <v>71.88</v>
       </c>
       <c r="F207" t="n">
-        <v>0.15756096</v>
+        <v>157.56096</v>
       </c>
     </row>
     <row r="208">
@@ -4523,7 +4523,7 @@
         <v>60.75</v>
       </c>
       <c r="F208" t="n">
-        <v>0.132192</v>
+        <v>132.192</v>
       </c>
     </row>
     <row r="209">
@@ -4543,7 +4543,7 @@
         <v>57.98999999999999</v>
       </c>
       <c r="F209" t="n">
-        <v>0.12711408</v>
+        <v>127.11408</v>
       </c>
     </row>
     <row r="210">
@@ -4563,7 +4563,7 @@
         <v>59.955</v>
       </c>
       <c r="F210" t="n">
-        <v>0.13214082</v>
+        <v>132.14082</v>
       </c>
     </row>
     <row r="211">
@@ -4583,7 +4583,7 @@
         <v>62.22</v>
       </c>
       <c r="F211" t="n">
-        <v>0.13638624</v>
+        <v>136.38624</v>
       </c>
     </row>
     <row r="212">
@@ -4603,7 +4603,7 @@
         <v>62.88</v>
       </c>
       <c r="F212" t="n">
-        <v>0.13783296</v>
+        <v>137.83296</v>
       </c>
     </row>
     <row r="213">
@@ -4623,7 +4623,7 @@
         <v>71.52</v>
       </c>
       <c r="F213" t="n">
-        <v>0.157344</v>
+        <v>157.344</v>
       </c>
     </row>
     <row r="214">
@@ -4643,7 +4643,7 @@
         <v>75.285</v>
       </c>
       <c r="F214" t="n">
-        <v>0.16592814</v>
+        <v>165.92814</v>
       </c>
     </row>
     <row r="215">
@@ -4663,7 +4663,7 @@
         <v>75.03</v>
       </c>
       <c r="F215" t="n">
-        <v>0.16536612</v>
+        <v>165.36612</v>
       </c>
     </row>
     <row r="216">
@@ -4683,7 +4683,7 @@
         <v>74.28</v>
       </c>
       <c r="F216" t="n">
-        <v>0.16401024</v>
+        <v>164.01024</v>
       </c>
     </row>
     <row r="217">
@@ -4703,7 +4703,7 @@
         <v>70.845</v>
       </c>
       <c r="F217" t="n">
-        <v>0.15614238</v>
+        <v>156.14238</v>
       </c>
     </row>
     <row r="218">
@@ -4723,7 +4723,7 @@
         <v>64.5</v>
       </c>
       <c r="F218" t="n">
-        <v>0.141642</v>
+        <v>141.642</v>
       </c>
     </row>
     <row r="219">
@@ -4743,7 +4743,7 @@
         <v>62.625</v>
       </c>
       <c r="F219" t="n">
-        <v>0.1375245</v>
+        <v>137.5245</v>
       </c>
     </row>
     <row r="220">
@@ -4763,7 +4763,7 @@
         <v>61.035</v>
       </c>
       <c r="F220" t="n">
-        <v>0.13330044</v>
+        <v>133.30044</v>
       </c>
     </row>
     <row r="221">
@@ -4783,7 +4783,7 @@
         <v>63.675</v>
       </c>
       <c r="F221" t="n">
-        <v>0.140085</v>
+        <v>140.085</v>
       </c>
     </row>
     <row r="222">
@@ -4803,7 +4803,7 @@
         <v>61.215</v>
       </c>
       <c r="F222" t="n">
-        <v>0.134673</v>
+        <v>134.673</v>
       </c>
     </row>
     <row r="223">
@@ -4823,7 +4823,7 @@
         <v>59.895</v>
       </c>
       <c r="F223" t="n">
-        <v>0.13105026</v>
+        <v>131.05026</v>
       </c>
     </row>
     <row r="224">
@@ -4843,7 +4843,7 @@
         <v>53.715</v>
       </c>
       <c r="F224" t="n">
-        <v>0.11731356</v>
+        <v>117.31356</v>
       </c>
     </row>
     <row r="225">
@@ -4863,7 +4863,7 @@
         <v>54.69</v>
       </c>
       <c r="F225" t="n">
-        <v>0.120318</v>
+        <v>120.318</v>
       </c>
     </row>
     <row r="226">
@@ -4883,7 +4883,7 @@
         <v>57.63</v>
       </c>
       <c r="F226" t="n">
-        <v>0.12632496</v>
+        <v>126.32496</v>
       </c>
     </row>
     <row r="227">
@@ -4903,7 +4903,7 @@
         <v>59.055</v>
       </c>
       <c r="F227" t="n">
-        <v>0.12944856</v>
+        <v>129.44856</v>
       </c>
     </row>
     <row r="228">
@@ -4923,7 +4923,7 @@
         <v>56.7</v>
       </c>
       <c r="F228" t="n">
-        <v>0.1240596</v>
+        <v>124.0596</v>
       </c>
     </row>
     <row r="229">
@@ -4943,7 +4943,7 @@
         <v>55.875</v>
       </c>
       <c r="F229" t="n">
-        <v>0.1231485</v>
+        <v>123.1485</v>
       </c>
     </row>
     <row r="230">
@@ -4963,7 +4963,7 @@
         <v>56.13</v>
       </c>
       <c r="F230" t="n">
-        <v>0.12281244</v>
+        <v>122.81244</v>
       </c>
     </row>
     <row r="231">
@@ -4983,7 +4983,7 @@
         <v>56.175</v>
       </c>
       <c r="F231" t="n">
-        <v>0.1229109</v>
+        <v>122.9109</v>
       </c>
     </row>
     <row r="232">
@@ -5003,7 +5003,7 @@
         <v>57.87</v>
       </c>
       <c r="F232" t="n">
-        <v>0.12661956</v>
+        <v>126.61956</v>
       </c>
     </row>
     <row r="233">
@@ -5023,7 +5023,7 @@
         <v>59.775</v>
       </c>
       <c r="F233" t="n">
-        <v>0.1310268</v>
+        <v>131.0268</v>
       </c>
     </row>
     <row r="234">
@@ -5043,7 +5043,7 @@
         <v>59.235</v>
       </c>
       <c r="F234" t="n">
-        <v>0.12936924</v>
+        <v>129.36924</v>
       </c>
     </row>
     <row r="235">
@@ -5063,7 +5063,7 @@
         <v>57.885</v>
       </c>
       <c r="F235" t="n">
-        <v>0.12711546</v>
+        <v>127.11546</v>
       </c>
     </row>
     <row r="236">
@@ -5083,7 +5083,7 @@
         <v>56.715</v>
       </c>
       <c r="F236" t="n">
-        <v>0.12409242</v>
+        <v>124.09242</v>
       </c>
     </row>
     <row r="237">
@@ -5103,7 +5103,7 @@
         <v>55.44</v>
       </c>
       <c r="F237" t="n">
-        <v>0.12130272</v>
+        <v>121.30272</v>
       </c>
     </row>
     <row r="238">
@@ -5123,7 +5123,7 @@
         <v>54.915</v>
       </c>
       <c r="F238" t="n">
-        <v>0.11949504</v>
+        <v>119.49504</v>
       </c>
     </row>
     <row r="239">
@@ -5143,7 +5143,7 @@
         <v>53.13</v>
       </c>
       <c r="F239" t="n">
-        <v>0.11603592</v>
+        <v>116.03592</v>
       </c>
     </row>
     <row r="240">
@@ -5163,7 +5163,7 @@
         <v>51.255</v>
       </c>
       <c r="F240" t="n">
-        <v>0.11235096</v>
+        <v>112.35096</v>
       </c>
     </row>
     <row r="241">
@@ -5183,7 +5183,7 @@
         <v>51.81</v>
       </c>
       <c r="F241" t="n">
-        <v>0.11336028</v>
+        <v>113.36028</v>
       </c>
     </row>
     <row r="242">
@@ -5203,7 +5203,7 @@
         <v>50.835</v>
       </c>
       <c r="F242" t="n">
-        <v>0.11102364</v>
+        <v>111.02364</v>
       </c>
     </row>
     <row r="243">
@@ -5223,7 +5223,7 @@
         <v>48.675</v>
       </c>
       <c r="F243" t="n">
-        <v>0.1059168</v>
+        <v>105.9168</v>
       </c>
     </row>
     <row r="244">
@@ -5243,7 +5243,7 @@
         <v>47.7</v>
       </c>
       <c r="F244" t="n">
-        <v>0.103986</v>
+        <v>103.986</v>
       </c>
     </row>
     <row r="245">
@@ -5263,7 +5263,7 @@
         <v>45.61499999999999</v>
       </c>
       <c r="F245" t="n">
-        <v>0.09944069999999999</v>
+        <v>99.44069999999999</v>
       </c>
     </row>
     <row r="246">
@@ -5283,7 +5283,7 @@
         <v>45</v>
       </c>
       <c r="F246" t="n">
-        <v>0.09810000000000001</v>
+        <v>98.10000000000001</v>
       </c>
     </row>
     <row r="247">
@@ -5303,7 +5303,7 @@
         <v>45.57</v>
       </c>
       <c r="F247" t="n">
-        <v>0.10134768</v>
+        <v>101.34768</v>
       </c>
     </row>
     <row r="248">
@@ -5323,7 +5323,7 @@
         <v>44.34</v>
       </c>
       <c r="F248" t="n">
-        <v>0.09648384</v>
+        <v>96.48384</v>
       </c>
     </row>
     <row r="249">
@@ -5343,7 +5343,7 @@
         <v>44.205</v>
       </c>
       <c r="F249" t="n">
-        <v>0.09619008000000001</v>
+        <v>96.19008000000001</v>
       </c>
     </row>
     <row r="250">
@@ -5363,7 +5363,7 @@
         <v>44.19</v>
       </c>
       <c r="F250" t="n">
-        <v>0.09615744000000001</v>
+        <v>96.15744000000001</v>
       </c>
     </row>
     <row r="251">
@@ -5383,7 +5383,7 @@
         <v>44.445</v>
       </c>
       <c r="F251" t="n">
-        <v>0.09706788000000001</v>
+        <v>97.06788</v>
       </c>
     </row>
     <row r="252">
@@ -5403,7 +5403,7 @@
         <v>45.72</v>
       </c>
       <c r="F252" t="n">
-        <v>0.09948672</v>
+        <v>99.48672000000001</v>
       </c>
     </row>
     <row r="253">
@@ -5423,7 +5423,7 @@
         <v>46.485</v>
       </c>
       <c r="F253" t="n">
-        <v>0.10096542</v>
+        <v>100.96542</v>
       </c>
     </row>
     <row r="254">
@@ -5443,7 +5443,7 @@
         <v>48.3</v>
       </c>
       <c r="F254" t="n">
-        <v>0.105294</v>
+        <v>105.294</v>
       </c>
     </row>
     <row r="255">
@@ -5463,7 +5463,7 @@
         <v>50.55</v>
       </c>
       <c r="F255" t="n">
-        <v>0.1108056</v>
+        <v>110.8056</v>
       </c>
     </row>
     <row r="256">
@@ -5483,7 +5483,7 @@
         <v>50.955</v>
       </c>
       <c r="F256" t="n">
-        <v>0.11128572</v>
+        <v>111.28572</v>
       </c>
     </row>
     <row r="257">
@@ -5503,7 +5503,7 @@
         <v>52.14</v>
       </c>
       <c r="F257" t="n">
-        <v>0.1136652</v>
+        <v>113.6652</v>
       </c>
     </row>
     <row r="258">
@@ -5523,7 +5523,7 @@
         <v>56.16</v>
       </c>
       <c r="F258" t="n">
-        <v>0.123552</v>
+        <v>123.552</v>
       </c>
     </row>
     <row r="259">
@@ -5543,7 +5543,7 @@
         <v>58.73999999999999</v>
       </c>
       <c r="F259" t="n">
-        <v>0.12828816</v>
+        <v>128.28816</v>
       </c>
     </row>
     <row r="260">
@@ -5563,7 +5563,7 @@
         <v>57.54</v>
       </c>
       <c r="F260" t="n">
-        <v>0.1254372</v>
+        <v>125.4372</v>
       </c>
     </row>
     <row r="261">
@@ -5583,7 +5583,7 @@
         <v>53.76</v>
       </c>
       <c r="F261" t="n">
-        <v>0.11741184</v>
+        <v>117.41184</v>
       </c>
     </row>
     <row r="262">
@@ -5603,7 +5603,7 @@
         <v>50.19</v>
       </c>
       <c r="F262" t="n">
-        <v>0.10961496</v>
+        <v>109.61496</v>
       </c>
     </row>
     <row r="263">
@@ -5623,7 +5623,7 @@
         <v>48.36</v>
       </c>
       <c r="F263" t="n">
-        <v>0.1054248</v>
+        <v>105.4248</v>
       </c>
     </row>
     <row r="264">
@@ -5643,7 +5643,7 @@
         <v>50.52</v>
       </c>
       <c r="F264" t="n">
-        <v>0.10972944</v>
+        <v>109.72944</v>
       </c>
     </row>
     <row r="265">
@@ -5663,7 +5663,7 @@
         <v>55.5</v>
       </c>
       <c r="F265" t="n">
-        <v>0.121656</v>
+        <v>121.656</v>
       </c>
     </row>
     <row r="266">
@@ -5683,7 +5683,7 @@
         <v>55.2</v>
       </c>
       <c r="F266" t="n">
-        <v>0.1201152</v>
+        <v>120.1152</v>
       </c>
     </row>
     <row r="267">
@@ -5703,7 +5703,7 @@
         <v>56.97</v>
       </c>
       <c r="F267" t="n">
-        <v>0.12487824</v>
+        <v>124.87824</v>
       </c>
     </row>
     <row r="268">
@@ -5723,7 +5723,7 @@
         <v>52.56</v>
       </c>
       <c r="F268" t="n">
-        <v>0.11437056</v>
+        <v>114.37056</v>
       </c>
     </row>
     <row r="269">
@@ -5743,7 +5743,7 @@
         <v>49.245</v>
       </c>
       <c r="F269" t="n">
-        <v>0.1073541</v>
+        <v>107.3541</v>
       </c>
     </row>
     <row r="270">
@@ -5763,7 +5763,7 @@
         <v>48.75</v>
       </c>
       <c r="F270" t="n">
-        <v>0.106275</v>
+        <v>106.275</v>
       </c>
     </row>
     <row r="271">
@@ -5783,7 +5783,7 @@
         <v>45.96</v>
       </c>
       <c r="F271" t="n">
-        <v>0.1001928</v>
+        <v>100.1928</v>
       </c>
     </row>
     <row r="272">
@@ -5803,7 +5803,7 @@
         <v>47.04</v>
       </c>
       <c r="F272" t="n">
-        <v>0.1025472</v>
+        <v>102.5472</v>
       </c>
     </row>
     <row r="273">
@@ -5823,7 +5823,7 @@
         <v>40.08</v>
       </c>
       <c r="F273" t="n">
-        <v>0.08721408</v>
+        <v>87.21408</v>
       </c>
     </row>
     <row r="274">
@@ -5843,7 +5843,7 @@
         <v>39.99</v>
       </c>
       <c r="F274" t="n">
-        <v>0.08701824000000001</v>
+        <v>87.01824000000001</v>
       </c>
     </row>
     <row r="275">
@@ -5863,7 +5863,7 @@
         <v>40.995</v>
       </c>
       <c r="F275" t="n">
-        <v>0.08920512</v>
+        <v>89.20511999999999</v>
       </c>
     </row>
     <row r="276">
@@ -5883,7 +5883,7 @@
         <v>40.56</v>
       </c>
       <c r="F276" t="n">
-        <v>0.08825856</v>
+        <v>88.25856</v>
       </c>
     </row>
     <row r="277">
@@ -5903,7 +5903,7 @@
         <v>39.75</v>
       </c>
       <c r="F277" t="n">
-        <v>0.086496</v>
+        <v>86.49600000000001</v>
       </c>
     </row>
     <row r="278">
@@ -5923,7 +5923,7 @@
         <v>39.225</v>
       </c>
       <c r="F278" t="n">
-        <v>0.08535360000000002</v>
+        <v>85.35360000000001</v>
       </c>
     </row>
     <row r="279">
@@ -5943,7 +5943,7 @@
         <v>38.955</v>
       </c>
       <c r="F279" t="n">
-        <v>0.08476608000000001</v>
+        <v>84.76608</v>
       </c>
     </row>
     <row r="280">
@@ -5963,7 +5963,7 @@
         <v>38.625</v>
       </c>
       <c r="F280" t="n">
-        <v>0.084048</v>
+        <v>84.048</v>
       </c>
     </row>
     <row r="281">
@@ -5983,7 +5983,7 @@
         <v>38.205</v>
       </c>
       <c r="F281" t="n">
-        <v>0.08313408</v>
+        <v>83.13408</v>
       </c>
     </row>
     <row r="282">
@@ -6003,7 +6003,7 @@
         <v>37.755</v>
       </c>
       <c r="F282" t="n">
-        <v>0.08215487999999999</v>
+        <v>82.15487999999999</v>
       </c>
     </row>
     <row r="283">
@@ -6023,7 +6023,7 @@
         <v>37.05</v>
       </c>
       <c r="F283" t="n">
-        <v>0.08062080000000001</v>
+        <v>80.6208</v>
       </c>
     </row>
     <row r="284">
@@ -6043,7 +6043,7 @@
         <v>37.125</v>
       </c>
       <c r="F284" t="n">
-        <v>0.08078400000000001</v>
+        <v>80.78400000000001</v>
       </c>
     </row>
     <row r="285">
@@ -6063,7 +6063,7 @@
         <v>37.845</v>
       </c>
       <c r="F285" t="n">
-        <v>0.08235072000000002</v>
+        <v>82.35072000000001</v>
       </c>
     </row>
     <row r="286">
@@ -6083,7 +6083,7 @@
         <v>37.995</v>
       </c>
       <c r="F286" t="n">
-        <v>0.08267712000000001</v>
+        <v>82.67712</v>
       </c>
     </row>
     <row r="287">
@@ -6103,7 +6103,7 @@
         <v>37.785</v>
       </c>
       <c r="F287" t="n">
-        <v>0.08237130000000001</v>
+        <v>82.37130000000001</v>
       </c>
     </row>
     <row r="288">
@@ -6123,7 +6123,7 @@
         <v>37.845</v>
       </c>
       <c r="F288" t="n">
-        <v>0.08235072000000002</v>
+        <v>82.35072000000001</v>
       </c>
     </row>
     <row r="289">
@@ -6143,7 +6143,7 @@
         <v>38.745</v>
       </c>
       <c r="F289" t="n">
-        <v>0.08415414</v>
+        <v>84.15414</v>
       </c>
     </row>
     <row r="290">
@@ -6163,7 +6163,7 @@
         <v>36.615</v>
       </c>
       <c r="F290" t="n">
-        <v>0.07967424000000001</v>
+        <v>79.67424000000001</v>
       </c>
     </row>
     <row r="291">
@@ -6183,7 +6183,7 @@
         <v>33.93</v>
       </c>
       <c r="F291" t="n">
-        <v>0.07383168000000001</v>
+        <v>73.83168000000001</v>
       </c>
     </row>
     <row r="292">
@@ -6203,7 +6203,7 @@
         <v>31.71</v>
       </c>
       <c r="F292" t="n">
-        <v>0.06862044</v>
+        <v>68.62044</v>
       </c>
     </row>
     <row r="293">
@@ -6223,7 +6223,7 @@
         <v>30.315</v>
       </c>
       <c r="F293" t="n">
-        <v>0.06584417999999999</v>
+        <v>65.84417999999999</v>
       </c>
     </row>
     <row r="294">
@@ -6243,7 +6243,7 @@
         <v>29.7</v>
       </c>
       <c r="F294" t="n">
-        <v>0.064152</v>
+        <v>64.152</v>
       </c>
     </row>
     <row r="295">
@@ -6263,7 +6263,7 @@
         <v>29.475</v>
       </c>
       <c r="F295" t="n">
-        <v>0.0635481</v>
+        <v>63.5481</v>
       </c>
     </row>
     <row r="296">
@@ -6283,7 +6283,7 @@
         <v>29.235</v>
       </c>
       <c r="F296" t="n">
-        <v>0.0631476</v>
+        <v>63.1476</v>
       </c>
     </row>
     <row r="297">
@@ -6303,7 +6303,7 @@
         <v>29.205</v>
       </c>
       <c r="F297" t="n">
-        <v>0.06355007999999999</v>
+        <v>63.55007999999999</v>
       </c>
     </row>
     <row r="298">
@@ -6323,7 +6323,7 @@
         <v>29.28</v>
       </c>
       <c r="F298" t="n">
-        <v>0.06371328</v>
+        <v>63.71328</v>
       </c>
     </row>
     <row r="299">
@@ -6343,7 +6343,7 @@
         <v>29.73</v>
       </c>
       <c r="F299" t="n">
-        <v>0.06540600000000001</v>
+        <v>65.40600000000001</v>
       </c>
     </row>
     <row r="300">
@@ -6363,7 +6363,7 @@
         <v>28.845</v>
       </c>
       <c r="F300" t="n">
-        <v>0.06265134</v>
+        <v>62.65134</v>
       </c>
     </row>
     <row r="301">
@@ -6383,7 +6383,7 @@
         <v>28.245</v>
       </c>
       <c r="F301" t="n">
-        <v>0.0615741</v>
+        <v>61.5741</v>
       </c>
     </row>
     <row r="302">
@@ -6403,7 +6403,7 @@
         <v>26.97</v>
       </c>
       <c r="F302" t="n">
-        <v>0.05857884</v>
+        <v>58.57884</v>
       </c>
     </row>
     <row r="303">
@@ -6423,7 +6423,7 @@
         <v>25.695</v>
       </c>
       <c r="F303" t="n">
-        <v>0.05539842</v>
+        <v>55.39841999999999</v>
       </c>
     </row>
     <row r="304">
@@ -6443,7 +6443,7 @@
         <v>25.095</v>
       </c>
       <c r="F304" t="n">
-        <v>0.05430558</v>
+        <v>54.30558</v>
       </c>
     </row>
     <row r="305">
@@ -6463,7 +6463,7 @@
         <v>24.525</v>
       </c>
       <c r="F305" t="n">
-        <v>0.0527778</v>
+        <v>52.7778</v>
       </c>
     </row>
     <row r="306">
@@ -6483,7 +6483,7 @@
         <v>24.03</v>
       </c>
       <c r="F306" t="n">
-        <v>0.05219316</v>
+        <v>52.19316</v>
       </c>
     </row>
     <row r="307">
@@ -6503,7 +6503,7 @@
         <v>23.58</v>
       </c>
       <c r="F307" t="n">
-        <v>0.05112144</v>
+        <v>51.12144</v>
       </c>
     </row>
     <row r="308">
@@ -6523,7 +6523,7 @@
         <v>23.205</v>
       </c>
       <c r="F308" t="n">
-        <v>0.05021562</v>
+        <v>50.21562</v>
       </c>
     </row>
     <row r="309">
@@ -6543,7 +6543,7 @@
         <v>22.185</v>
       </c>
       <c r="F309" t="n">
-        <v>0.04845204</v>
+        <v>48.45204</v>
       </c>
     </row>
     <row r="310">
@@ -6563,7 +6563,7 @@
         <v>21.78</v>
       </c>
       <c r="F310" t="n">
-        <v>0.04782888</v>
+        <v>47.82888</v>
       </c>
     </row>
     <row r="311">
@@ -6583,7 +6583,7 @@
         <v>21.285</v>
       </c>
       <c r="F311" t="n">
-        <v>0.04563504</v>
+        <v>45.63504</v>
       </c>
     </row>
     <row r="312">
@@ -6603,7 +6603,7 @@
         <v>20.76</v>
       </c>
       <c r="F312" t="n">
-        <v>0.04500768</v>
+        <v>45.00768</v>
       </c>
     </row>
     <row r="313">
@@ -6623,7 +6623,7 @@
         <v>20.25</v>
       </c>
       <c r="F313" t="n">
-        <v>0.043983</v>
+        <v>43.983</v>
       </c>
     </row>
     <row r="314">
@@ -6643,7 +6643,7 @@
         <v>19.83</v>
       </c>
       <c r="F314" t="n">
-        <v>0.04307076</v>
+        <v>43.07076</v>
       </c>
     </row>
     <row r="315">
@@ -6663,7 +6663,7 @@
         <v>19.455</v>
       </c>
       <c r="F315" t="n">
-        <v>0.04217844</v>
+        <v>42.17843999999999</v>
       </c>
     </row>
     <row r="316">
@@ -6683,7 +6683,7 @@
         <v>19.125</v>
       </c>
       <c r="F316" t="n">
-        <v>0.041922</v>
+        <v>41.922</v>
       </c>
     </row>
     <row r="317">
@@ -6703,7 +6703,7 @@
         <v>18.855</v>
       </c>
       <c r="F317" t="n">
-        <v>0.04042512000000001</v>
+        <v>40.42512000000001</v>
       </c>
     </row>
     <row r="318">
@@ -6723,7 +6723,7 @@
         <v>18.525</v>
       </c>
       <c r="F318" t="n">
-        <v>0.0397176</v>
+        <v>39.7176</v>
       </c>
     </row>
     <row r="319">
@@ -6743,7 +6743,7 @@
         <v>18.39</v>
       </c>
       <c r="F319" t="n">
-        <v>0.03964884</v>
+        <v>39.64884</v>
       </c>
     </row>
     <row r="320">
@@ -6763,7 +6763,7 @@
         <v>18.24</v>
       </c>
       <c r="F320" t="n">
-        <v>0.03961728</v>
+        <v>39.61728</v>
       </c>
     </row>
     <row r="321">
@@ -6783,7 +6783,7 @@
         <v>17.94</v>
       </c>
       <c r="F321" t="n">
-        <v>0.03867863999999999</v>
+        <v>38.67863999999999</v>
       </c>
     </row>
     <row r="322">
@@ -6803,7 +6803,7 @@
         <v>17.46</v>
       </c>
       <c r="F322" t="n">
-        <v>0.03743424</v>
+        <v>37.43424</v>
       </c>
     </row>
     <row r="323">
@@ -6823,7 +6823,7 @@
         <v>16.86</v>
       </c>
       <c r="F323" t="n">
-        <v>0.03648504</v>
+        <v>36.48504000000001</v>
       </c>
     </row>
     <row r="324">
@@ -6843,7 +6843,7 @@
         <v>15.105</v>
       </c>
       <c r="F324" t="n">
-        <v>0.0326268</v>
+        <v>32.6268</v>
       </c>
     </row>
     <row r="325">
@@ -6863,7 +6863,7 @@
         <v>14.67</v>
       </c>
       <c r="F325" t="n">
-        <v>0.03203928</v>
+        <v>32.03928000000001</v>
       </c>
     </row>
     <row r="326">
@@ -6883,7 +6883,7 @@
         <v>14.31</v>
       </c>
       <c r="F326" t="n">
-        <v>0.03079512</v>
+        <v>30.79512</v>
       </c>
     </row>
     <row r="327">
@@ -6903,7 +6903,7 @@
         <v>14.055</v>
       </c>
       <c r="F327" t="n">
-        <v>0.03041502</v>
+        <v>30.41502</v>
       </c>
     </row>
     <row r="328">
@@ -6923,7 +6923,7 @@
         <v>13.92</v>
       </c>
       <c r="F328" t="n">
-        <v>0.0297888</v>
+        <v>29.7888</v>
       </c>
     </row>
     <row r="329">
@@ -6943,7 +6943,7 @@
         <v>13.92</v>
       </c>
       <c r="F329" t="n">
-        <v>0.03028992</v>
+        <v>30.28992</v>
       </c>
     </row>
     <row r="330">
@@ -6963,7 +6963,7 @@
         <v>14.145</v>
       </c>
       <c r="F330" t="n">
-        <v>0.03049662</v>
+        <v>30.49662</v>
       </c>
     </row>
     <row r="331">
@@ -6983,7 +6983,7 @@
         <v>14.355</v>
       </c>
       <c r="F331" t="n">
-        <v>0.03175326</v>
+        <v>31.75326</v>
       </c>
     </row>
     <row r="332">
@@ -7003,7 +7003,7 @@
         <v>14.55</v>
       </c>
       <c r="F332" t="n">
-        <v>0.031137</v>
+        <v>31.137</v>
       </c>
     </row>
     <row r="333">
@@ -7023,7 +7023,7 @@
         <v>14.76</v>
       </c>
       <c r="F333" t="n">
-        <v>0.0312912</v>
+        <v>31.2912</v>
       </c>
     </row>
     <row r="334">
@@ -7043,7 +7043,7 @@
         <v>14.97</v>
       </c>
       <c r="F334" t="n">
-        <v>0.03275436</v>
+        <v>32.75436000000001</v>
       </c>
     </row>
     <row r="335">
@@ -7063,7 +7063,7 @@
         <v>15.24</v>
       </c>
       <c r="F335" t="n">
-        <v>0.03249168</v>
+        <v>32.49168</v>
       </c>
     </row>
     <row r="336">
@@ -7083,7 +7083,7 @@
         <v>15.375</v>
       </c>
       <c r="F336" t="n">
-        <v>0.03308700000000001</v>
+        <v>33.08700000000001</v>
       </c>
     </row>
     <row r="337">
@@ -7103,7 +7103,7 @@
         <v>15.345</v>
       </c>
       <c r="F337" t="n">
-        <v>0.0325314</v>
+        <v>32.5314</v>
       </c>
     </row>
     <row r="338">
@@ -7123,7 +7123,7 @@
         <v>15.3</v>
       </c>
       <c r="F338" t="n">
-        <v>0.03292560000000001</v>
+        <v>32.92560000000001</v>
       </c>
     </row>
     <row r="339">
@@ -7143,7 +7143,7 @@
         <v>15.21</v>
       </c>
       <c r="F339" t="n">
-        <v>0.03261024</v>
+        <v>32.61024</v>
       </c>
     </row>
     <row r="340">
@@ -7163,7 +7163,7 @@
         <v>15.045</v>
       </c>
       <c r="F340" t="n">
-        <v>0.0321963</v>
+        <v>32.19629999999999</v>
       </c>
     </row>
     <row r="341">
@@ -7183,7 +7183,7 @@
         <v>14.82</v>
       </c>
       <c r="F341" t="n">
-        <v>0.0317148</v>
+        <v>31.7148</v>
       </c>
     </row>
     <row r="342">
@@ -7203,7 +7203,7 @@
         <v>14.55</v>
       </c>
       <c r="F342" t="n">
-        <v>0.031719</v>
+        <v>31.719</v>
       </c>
     </row>
     <row r="343">
@@ -7223,7 +7223,7 @@
         <v>14.295</v>
       </c>
       <c r="F343" t="n">
-        <v>0.03082002</v>
+        <v>30.82002</v>
       </c>
     </row>
     <row r="344">
@@ -7243,7 +7243,7 @@
         <v>14.01</v>
       </c>
       <c r="F344" t="n">
-        <v>0.0302616</v>
+        <v>30.2616</v>
       </c>
     </row>
     <row r="345">
@@ -7263,7 +7263,7 @@
         <v>13.38</v>
       </c>
       <c r="F345" t="n">
-        <v>0.02932896</v>
+        <v>29.32896</v>
       </c>
     </row>
     <row r="346">
@@ -7283,7 +7283,7 @@
         <v>12.78</v>
       </c>
       <c r="F346" t="n">
-        <v>0.02765592</v>
+        <v>27.65592</v>
       </c>
     </row>
     <row r="347">
@@ -7303,7 +7303,7 @@
         <v>12.51</v>
       </c>
       <c r="F347" t="n">
-        <v>0.02707164</v>
+        <v>27.07164</v>
       </c>
     </row>
     <row r="348">
@@ -7323,7 +7323,7 @@
         <v>12.3</v>
       </c>
       <c r="F348" t="n">
-        <v>0.0269124</v>
+        <v>26.9124</v>
       </c>
     </row>
     <row r="349">
@@ -7343,7 +7343,7 @@
         <v>12.135</v>
       </c>
       <c r="F349" t="n">
-        <v>0.02626014</v>
+        <v>26.26014</v>
       </c>
     </row>
     <row r="350">
@@ -7363,7 +7363,7 @@
         <v>12.03</v>
       </c>
       <c r="F350" t="n">
-        <v>0.02603292</v>
+        <v>26.03292</v>
       </c>
     </row>
     <row r="351">
@@ -7383,7 +7383,7 @@
         <v>11.94</v>
       </c>
       <c r="F351" t="n">
-        <v>0.0257904</v>
+        <v>25.7904</v>
       </c>
     </row>
     <row r="352">
@@ -7403,7 +7403,7 @@
         <v>11.88</v>
       </c>
       <c r="F352" t="n">
-        <v>0.0258984</v>
+        <v>25.8984</v>
       </c>
     </row>
     <row r="353">
@@ -7423,7 +7423,7 @@
         <v>12.03</v>
       </c>
       <c r="F353" t="n">
-        <v>0.02612916</v>
+        <v>26.12916</v>
       </c>
     </row>
     <row r="354">
@@ -7443,7 +7443,7 @@
         <v>11.745</v>
       </c>
       <c r="F354" t="n">
-        <v>0.02494638</v>
+        <v>24.94638</v>
       </c>
     </row>
     <row r="355">
@@ -7463,7 +7463,7 @@
         <v>11.715</v>
       </c>
       <c r="F355" t="n">
-        <v>0.0248358</v>
+        <v>24.8358</v>
       </c>
     </row>
     <row r="356">
@@ -7483,7 +7483,7 @@
         <v>11.61</v>
       </c>
       <c r="F356" t="n">
-        <v>0.02526336</v>
+        <v>25.26336</v>
       </c>
     </row>
     <row r="357">
@@ -7503,7 +7503,7 @@
         <v>11.37</v>
       </c>
       <c r="F357" t="n">
-        <v>0.0247866</v>
+        <v>24.7866</v>
       </c>
     </row>
     <row r="358">
@@ -7523,7 +7523,7 @@
         <v>11.175</v>
       </c>
       <c r="F358" t="n">
-        <v>0.0243168</v>
+        <v>24.3168</v>
       </c>
     </row>
     <row r="359">
@@ -7543,7 +7543,7 @@
         <v>10.815</v>
       </c>
       <c r="F359" t="n">
-        <v>0.02318736</v>
+        <v>23.18736</v>
       </c>
     </row>
     <row r="360">
@@ -7563,7 +7563,7 @@
         <v>10.605</v>
       </c>
       <c r="F360" t="n">
-        <v>0.02265228</v>
+        <v>22.65228</v>
       </c>
     </row>
     <row r="361">
@@ -7583,7 +7583,7 @@
         <v>10.41</v>
       </c>
       <c r="F361" t="n">
-        <v>0.02161116</v>
+        <v>21.61116</v>
       </c>
     </row>
     <row r="362">
@@ -7603,7 +7603,7 @@
         <v>10.185</v>
       </c>
       <c r="F362" t="n">
-        <v>0.02195886</v>
+        <v>21.95886</v>
       </c>
     </row>
     <row r="363">
@@ -7623,7 +7623,7 @@
         <v>9.945</v>
       </c>
       <c r="F363" t="n">
-        <v>0.02116296</v>
+        <v>21.16296</v>
       </c>
     </row>
     <row r="364">
@@ -7643,7 +7643,7 @@
         <v>9.719999999999999</v>
       </c>
       <c r="F364" t="n">
-        <v>0.02111184</v>
+        <v>21.11184</v>
       </c>
     </row>
     <row r="365">
@@ -7663,7 +7663,7 @@
         <v>9.494999999999999</v>
       </c>
       <c r="F365" t="n">
-        <v>0.02035728</v>
+        <v>20.35728</v>
       </c>
     </row>
     <row r="366">
@@ -7683,7 +7683,7 @@
         <v>9.33</v>
       </c>
       <c r="F366" t="n">
-        <v>0.01981692</v>
+        <v>19.81692</v>
       </c>
     </row>
     <row r="367">
@@ -7703,7 +7703,7 @@
         <v>9.18</v>
       </c>
       <c r="F367" t="n">
-        <v>0.01957176</v>
+        <v>19.57176</v>
       </c>
     </row>
     <row r="368">
@@ -7723,7 +7723,7 @@
         <v>9.014999999999999</v>
       </c>
       <c r="F368" t="n">
-        <v>0.0192921</v>
+        <v>19.2921</v>
       </c>
     </row>
     <row r="369">
@@ -7743,7 +7743,7 @@
         <v>8.955</v>
       </c>
       <c r="F369" t="n">
-        <v>0.01927116</v>
+        <v>19.27116</v>
       </c>
     </row>
     <row r="370">
@@ -7763,7 +7763,7 @@
         <v>8.895</v>
       </c>
       <c r="F370" t="n">
-        <v>0.01949784</v>
+        <v>19.49784</v>
       </c>
     </row>
     <row r="371">
@@ -7783,7 +7783,7 @@
         <v>8.834999999999999</v>
       </c>
       <c r="F371" t="n">
-        <v>0.01982574</v>
+        <v>19.82574</v>
       </c>
     </row>
     <row r="372">
@@ -7803,7 +7803,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="F372" t="n">
-        <v>0.018966</v>
+        <v>18.966</v>
       </c>
     </row>
     <row r="373">
@@ -7823,7 +7823,7 @@
         <v>8.609999999999999</v>
       </c>
       <c r="F373" t="n">
-        <v>0.0185976</v>
+        <v>18.5976</v>
       </c>
     </row>
     <row r="374">
@@ -7843,7 +7843,7 @@
         <v>8.535</v>
       </c>
       <c r="F374" t="n">
-        <v>0.0182649</v>
+        <v>18.2649</v>
       </c>
     </row>
     <row r="375">
@@ -7863,7 +7863,7 @@
         <v>8.475</v>
       </c>
       <c r="F375" t="n">
-        <v>0.0185772</v>
+        <v>18.5772</v>
       </c>
     </row>
     <row r="376">
@@ -7883,7 +7883,7 @@
         <v>8.414999999999999</v>
       </c>
       <c r="F376" t="n">
-        <v>0.0186813</v>
+        <v>18.6813</v>
       </c>
     </row>
     <row r="377">
@@ -7903,7 +7903,7 @@
         <v>8.4</v>
       </c>
       <c r="F377" t="n">
-        <v>0.017976</v>
+        <v>17.976</v>
       </c>
     </row>
     <row r="378">
@@ -7923,7 +7923,7 @@
         <v>8.355</v>
       </c>
       <c r="F378" t="n">
-        <v>0.01781286</v>
+        <v>17.81286</v>
       </c>
     </row>
     <row r="379">
@@ -7943,7 +7943,7 @@
         <v>8.31</v>
       </c>
       <c r="F379" t="n">
-        <v>0.01818228</v>
+        <v>18.18228</v>
       </c>
     </row>
     <row r="380">
@@ -7963,7 +7963,7 @@
         <v>8.31</v>
       </c>
       <c r="F380" t="n">
-        <v>0.01804932</v>
+        <v>18.04932</v>
       </c>
     </row>
     <row r="381">
@@ -7983,7 +7983,7 @@
         <v>8.219999999999999</v>
       </c>
       <c r="F381" t="n">
-        <v>0.01801824</v>
+        <v>18.01824</v>
       </c>
     </row>
     <row r="382">
@@ -8003,7 +8003,7 @@
         <v>8.1</v>
       </c>
       <c r="F382" t="n">
-        <v>0.0176256</v>
+        <v>17.6256</v>
       </c>
     </row>
     <row r="383">
@@ -8023,7 +8023,7 @@
         <v>7.98</v>
       </c>
       <c r="F383" t="n">
-        <v>0.01710912</v>
+        <v>17.10912</v>
       </c>
     </row>
     <row r="384">
@@ -8043,7 +8043,7 @@
         <v>7.83</v>
       </c>
       <c r="F384" t="n">
-        <v>0.01700676</v>
+        <v>17.00676</v>
       </c>
     </row>
     <row r="385">
@@ -8063,7 +8063,7 @@
         <v>7.635</v>
       </c>
       <c r="F385" t="n">
-        <v>0.01643052</v>
+        <v>16.43052</v>
       </c>
     </row>
     <row r="386">
@@ -8083,7 +8083,7 @@
         <v>7.425</v>
       </c>
       <c r="F386" t="n">
-        <v>0.0162756</v>
+        <v>16.2756</v>
       </c>
     </row>
     <row r="387">
@@ -8103,7 +8103,7 @@
         <v>7.199999999999999</v>
       </c>
       <c r="F387" t="n">
-        <v>0.0158976</v>
+        <v>15.8976</v>
       </c>
     </row>
     <row r="388">
@@ -8123,7 +8123,7 @@
         <v>6.975</v>
       </c>
       <c r="F388" t="n">
-        <v>0.0150381</v>
+        <v>15.0381</v>
       </c>
     </row>
     <row r="389">
@@ -8143,7 +8143,7 @@
         <v>6.524999999999999</v>
       </c>
       <c r="F389" t="n">
-        <v>0.014094</v>
+        <v>14.094</v>
       </c>
     </row>
     <row r="390">
@@ -8163,7 +8163,7 @@
         <v>6.105</v>
       </c>
       <c r="F390" t="n">
-        <v>0.01304028</v>
+        <v>13.04028</v>
       </c>
     </row>
     <row r="391">
@@ -8183,7 +8183,7 @@
         <v>5.895</v>
       </c>
       <c r="F391" t="n">
-        <v>0.01266246</v>
+        <v>12.66246</v>
       </c>
     </row>
     <row r="392">
@@ -8203,7 +8203,7 @@
         <v>5.7</v>
       </c>
       <c r="F392" t="n">
-        <v>0.0122664</v>
+        <v>12.2664</v>
       </c>
     </row>
     <row r="393">
@@ -8223,7 +8223,7 @@
         <v>5.52</v>
       </c>
       <c r="F393" t="n">
-        <v>0.01194528</v>
+        <v>11.94528</v>
       </c>
     </row>
     <row r="394">
@@ -8243,7 +8243,7 @@
         <v>5.355</v>
       </c>
       <c r="F394" t="n">
-        <v>0.01184526</v>
+        <v>11.84526</v>
       </c>
     </row>
     <row r="395">
@@ -8263,7 +8263,7 @@
         <v>5.069999999999999</v>
       </c>
       <c r="F395" t="n">
-        <v>0.01087008</v>
+        <v>10.87008</v>
       </c>
     </row>
     <row r="396">
@@ -8283,7 +8283,7 @@
         <v>4.92</v>
       </c>
       <c r="F396" t="n">
-        <v>0.01048944</v>
+        <v>10.48944</v>
       </c>
     </row>
     <row r="397">
@@ -8303,7 +8303,7 @@
         <v>4.68</v>
       </c>
       <c r="F397" t="n">
-        <v>0.00980928</v>
+        <v>9.809279999999999</v>
       </c>
     </row>
     <row r="398">
@@ -8323,7 +8323,7 @@
         <v>4.56</v>
       </c>
       <c r="F398" t="n">
-        <v>0.009831360000000001</v>
+        <v>9.83136</v>
       </c>
     </row>
     <row r="399">
@@ -8343,7 +8343,7 @@
         <v>4.35</v>
       </c>
       <c r="F399" t="n">
-        <v>0.009204599999999999</v>
+        <v>9.204599999999999</v>
       </c>
     </row>
     <row r="400">
@@ -8363,7 +8363,7 @@
         <v>4.125</v>
       </c>
       <c r="F400" t="n">
-        <v>0.0087285</v>
+        <v>8.7285</v>
       </c>
     </row>
     <row r="401">
@@ -8383,7 +8383,7 @@
         <v>4.065</v>
       </c>
       <c r="F401" t="n">
-        <v>0.00884544</v>
+        <v>8.84544</v>
       </c>
     </row>
     <row r="402">
@@ -8403,7 +8403,7 @@
         <v>4.005</v>
       </c>
       <c r="F402" t="n">
-        <v>0.008827020000000001</v>
+        <v>8.827020000000001</v>
       </c>
     </row>
     <row r="403">
@@ -8423,7 +8423,7 @@
         <v>3.915</v>
       </c>
       <c r="F403" t="n">
-        <v>0.008331120000000001</v>
+        <v>8.33112</v>
       </c>
     </row>
     <row r="404">
@@ -8443,7 +8443,7 @@
         <v>3.87</v>
       </c>
       <c r="F404" t="n">
-        <v>0.008328239999999999</v>
+        <v>8.328239999999999</v>
       </c>
     </row>
     <row r="405">
@@ -8463,7 +8463,7 @@
         <v>3.72</v>
       </c>
       <c r="F405" t="n">
-        <v>0.00794592</v>
+        <v>7.94592</v>
       </c>
     </row>
     <row r="406">
@@ -8483,7 +8483,7 @@
         <v>3.675</v>
       </c>
       <c r="F406" t="n">
-        <v>0.0077469</v>
+        <v>7.7469</v>
       </c>
     </row>
     <row r="407">
@@ -8503,7 +8503,7 @@
         <v>3.63</v>
       </c>
       <c r="F407" t="n">
-        <v>0.007681080000000001</v>
+        <v>7.681080000000001</v>
       </c>
     </row>
     <row r="408">
@@ -8523,7 +8523,7 @@
         <v>3.57</v>
       </c>
       <c r="F408" t="n">
-        <v>0.00759696</v>
+        <v>7.59696</v>
       </c>
     </row>
     <row r="409">
@@ -8543,7 +8543,7 @@
         <v>3.48</v>
       </c>
       <c r="F409" t="n">
-        <v>0.007308</v>
+        <v>7.308</v>
       </c>
     </row>
     <row r="410">
@@ -8563,7 +8563,7 @@
         <v>3.36</v>
       </c>
       <c r="F410" t="n">
-        <v>0.00735168</v>
+        <v>7.35168</v>
       </c>
     </row>
     <row r="411">
@@ -8583,7 +8583,7 @@
         <v>2.925</v>
       </c>
       <c r="F411" t="n">
-        <v>0.0063063</v>
+        <v>6.3063</v>
       </c>
     </row>
     <row r="412">
@@ -8603,7 +8603,7 @@
         <v>2.76</v>
       </c>
       <c r="F412" t="n">
-        <v>0.00602784</v>
+        <v>6.027839999999999</v>
       </c>
     </row>
     <row r="413">
@@ -8623,7 +8623,7 @@
         <v>2.61</v>
       </c>
       <c r="F413" t="n">
-        <v>0.00587772</v>
+        <v>5.87772</v>
       </c>
     </row>
     <row r="414">
@@ -8643,7 +8643,7 @@
         <v>2.325</v>
       </c>
       <c r="F414" t="n">
-        <v>0.0051987</v>
+        <v>5.1987</v>
       </c>
     </row>
     <row r="415">
@@ -8663,7 +8663,7 @@
         <v>2.235</v>
       </c>
       <c r="F415" t="n">
-        <v>0.00490806</v>
+        <v>4.90806</v>
       </c>
     </row>
     <row r="416">
@@ -8683,7 +8683,7 @@
         <v>2.145</v>
       </c>
       <c r="F416" t="n">
-        <v>0.004581720000000001</v>
+        <v>4.581720000000001</v>
       </c>
     </row>
     <row r="417">
@@ -8703,7 +8703,7 @@
         <v>2.055</v>
       </c>
       <c r="F417" t="n">
-        <v>0.004594979999999999</v>
+        <v>4.59498</v>
       </c>
     </row>
     <row r="418">
@@ -8723,7 +8723,7 @@
         <v>1.965</v>
       </c>
       <c r="F418" t="n">
-        <v>0.0042837</v>
+        <v>4.2837</v>
       </c>
     </row>
     <row r="419">
@@ -8743,7 +8743,7 @@
         <v>1.89</v>
       </c>
       <c r="F419" t="n">
-        <v>0.00415044</v>
+        <v>4.15044</v>
       </c>
     </row>
     <row r="420">
@@ -8763,7 +8763,7 @@
         <v>1.815</v>
       </c>
       <c r="F420" t="n">
-        <v>0.00393492</v>
+        <v>3.93492</v>
       </c>
     </row>
     <row r="421">
@@ -8783,7 +8783,7 @@
         <v>1.755</v>
       </c>
       <c r="F421" t="n">
-        <v>0.00390312</v>
+        <v>3.90312</v>
       </c>
     </row>
     <row r="422">
@@ -8803,7 +8803,7 @@
         <v>1.695</v>
       </c>
       <c r="F422" t="n">
-        <v>0.0037629</v>
+        <v>3.7629</v>
       </c>
     </row>
     <row r="423">
@@ -8823,7 +8823,7 @@
         <v>1.635</v>
       </c>
       <c r="F423" t="n">
-        <v>0.00365586</v>
+        <v>3.65586</v>
       </c>
     </row>
     <row r="424">
@@ -8843,7 +8843,7 @@
         <v>1.605</v>
       </c>
       <c r="F424" t="n">
-        <v>0.00354384</v>
+        <v>3.54384</v>
       </c>
     </row>
     <row r="425">
@@ -8863,7 +8863,7 @@
         <v>1.575</v>
       </c>
       <c r="F425" t="n">
-        <v>0.0035217</v>
+        <v>3.5217</v>
       </c>
     </row>
     <row r="426">
@@ -8883,7 +8883,7 @@
         <v>1.56</v>
       </c>
       <c r="F426" t="n">
-        <v>0.00342576</v>
+        <v>3.42576</v>
       </c>
     </row>
     <row r="427">
@@ -8903,7 +8903,7 @@
         <v>1.545</v>
       </c>
       <c r="F427" t="n">
-        <v>0.003399</v>
+        <v>3.399</v>
       </c>
     </row>
     <row r="428">
@@ -8923,7 +8923,7 @@
         <v>1.5</v>
       </c>
       <c r="F428" t="n">
-        <v>0.0033</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="429">
@@ -8943,7 +8943,7 @@
         <v>1.44</v>
       </c>
       <c r="F429" t="n">
-        <v>0.003168</v>
+        <v>3.168</v>
       </c>
     </row>
     <row r="430">
@@ -8963,7 +8963,7 @@
         <v>1.335</v>
       </c>
       <c r="F430" t="n">
-        <v>0.00290496</v>
+        <v>2.90496</v>
       </c>
     </row>
     <row r="431">
@@ -8983,7 +8983,7 @@
         <v>1.29</v>
       </c>
       <c r="F431" t="n">
-        <v>0.00279672</v>
+        <v>2.79672</v>
       </c>
     </row>
     <row r="432">
@@ -9003,7 +9003,7 @@
         <v>1.23</v>
       </c>
       <c r="F432" t="n">
-        <v>0.00269616</v>
+        <v>2.69616</v>
       </c>
     </row>
     <row r="433">
@@ -9023,7 +9023,7 @@
         <v>1.14</v>
       </c>
       <c r="F433" t="n">
-        <v>0.00254904</v>
+        <v>2.54904</v>
       </c>
     </row>
     <row r="434">
@@ -9043,7 +9043,7 @@
         <v>1.095</v>
       </c>
       <c r="F434" t="n">
-        <v>0.00235644</v>
+        <v>2.35644</v>
       </c>
     </row>
     <row r="435">
@@ -9063,7 +9063,7 @@
         <v>1.005</v>
       </c>
       <c r="F435" t="n">
-        <v>0.00224718</v>
+        <v>2.24718</v>
       </c>
     </row>
     <row r="436">
@@ -9083,7 +9083,7 @@
         <v>0.9149999999999999</v>
       </c>
       <c r="F436" t="n">
-        <v>0.00208254</v>
+        <v>2.08254</v>
       </c>
     </row>
     <row r="437">
@@ -9103,7 +9103,7 @@
         <v>0.87</v>
       </c>
       <c r="F437" t="n">
-        <v>0.0019488</v>
+        <v>1.9488</v>
       </c>
     </row>
     <row r="438">
@@ -9123,7 +9123,7 @@
         <v>0.825</v>
       </c>
       <c r="F438" t="n">
-        <v>0.0018315</v>
+        <v>1.8315</v>
       </c>
     </row>
     <row r="439">
@@ -9143,7 +9143,7 @@
         <v>0.75</v>
       </c>
       <c r="F439" t="n">
-        <v>0.001656</v>
+        <v>1.656</v>
       </c>
     </row>
     <row r="440">
@@ -9163,7 +9163,7 @@
         <v>0.705</v>
       </c>
       <c r="F440" t="n">
-        <v>0.00157638</v>
+        <v>1.57638</v>
       </c>
     </row>
     <row r="441">
@@ -9183,7 +9183,7 @@
         <v>0.5549999999999999</v>
       </c>
       <c r="F441" t="n">
-        <v>0.00121656</v>
+        <v>1.21656</v>
       </c>
     </row>
     <row r="442">
@@ -9203,7 +9203,7 @@
         <v>0.495</v>
       </c>
       <c r="F442" t="n">
-        <v>0.00109296</v>
+        <v>1.09296</v>
       </c>
     </row>
     <row r="443">
@@ -9223,7 +9223,7 @@
         <v>0.465</v>
       </c>
       <c r="F443" t="n">
-        <v>0.00103044</v>
+        <v>1.03044</v>
       </c>
     </row>
     <row r="444">
@@ -9243,7 +9243,7 @@
         <v>0.435</v>
       </c>
       <c r="F444" t="n">
-        <v>0.0009813600000000001</v>
+        <v>0.9813600000000001</v>
       </c>
     </row>
     <row r="445">
@@ -9263,7 +9263,7 @@
         <v>0.405</v>
       </c>
       <c r="F445" t="n">
-        <v>0.00090396</v>
+        <v>0.90396</v>
       </c>
     </row>
     <row r="446">
@@ -9283,7 +9283,7 @@
         <v>0.36</v>
       </c>
       <c r="F446" t="n">
-        <v>0.0008035200000000001</v>
+        <v>0.80352</v>
       </c>
     </row>
     <row r="447">
@@ -9303,7 +9303,7 @@
         <v>0.36</v>
       </c>
       <c r="F447" t="n">
-        <v>0.00078768</v>
+        <v>0.78768</v>
       </c>
     </row>
     <row r="448">
@@ -9323,7 +9323,7 @@
         <v>0.315</v>
       </c>
       <c r="F448" t="n">
-        <v>0.00069552</v>
+        <v>0.69552</v>
       </c>
     </row>
     <row r="449">
@@ -9343,7 +9343,7 @@
         <v>0.285</v>
       </c>
       <c r="F449" t="n">
-        <v>0.00063156</v>
+        <v>0.63156</v>
       </c>
     </row>
     <row r="450">
@@ -9363,7 +9363,7 @@
         <v>0.27</v>
       </c>
       <c r="F450" t="n">
-        <v>0.0005983200000000001</v>
+        <v>0.5983200000000001</v>
       </c>
     </row>
     <row r="451">
@@ -9383,7 +9383,7 @@
         <v>0.21</v>
       </c>
       <c r="F451" t="n">
-        <v>0.0004746</v>
+        <v>0.4746</v>
       </c>
     </row>
     <row r="452">
@@ -9403,7 +9403,7 @@
         <v>0.21</v>
       </c>
       <c r="F452" t="n">
-        <v>0.0004645200000000001</v>
+        <v>0.4645200000000001</v>
       </c>
     </row>
     <row r="453">
@@ -9423,7 +9423,7 @@
         <v>0.195</v>
       </c>
       <c r="F453" t="n">
-        <v>0.0004329000000000001</v>
+        <v>0.4329000000000001</v>
       </c>
     </row>
     <row r="454">
@@ -9443,7 +9443,7 @@
         <v>0.18</v>
       </c>
       <c r="F454" t="n">
-        <v>0.00041472</v>
+        <v>0.41472</v>
       </c>
     </row>
     <row r="455">
@@ -9463,7 +9463,7 @@
         <v>0.18</v>
       </c>
       <c r="F455" t="n">
-        <v>0.0003996</v>
+        <v>0.3996</v>
       </c>
     </row>
     <row r="456">
@@ -9483,7 +9483,7 @@
         <v>0.165</v>
       </c>
       <c r="F456" t="n">
-        <v>0.0003696</v>
+        <v>0.3696</v>
       </c>
     </row>
     <row r="457">
@@ -9503,7 +9503,7 @@
         <v>0.15</v>
       </c>
       <c r="F457" t="n">
-        <v>0.0003354</v>
+        <v>0.3354</v>
       </c>
     </row>
     <row r="458">
@@ -9523,7 +9523,7 @@
         <v>0.12</v>
       </c>
       <c r="F458" t="n">
-        <v>0.0002736</v>
+        <v>0.2736</v>
       </c>
     </row>
     <row r="459">
@@ -9543,7 +9543,7 @@
         <v>0.105</v>
       </c>
       <c r="F459" t="n">
-        <v>0.0002352</v>
+        <v>0.2352</v>
       </c>
     </row>
     <row r="460">
@@ -9563,7 +9563,7 @@
         <v>0.09</v>
       </c>
       <c r="F460" t="n">
-        <v>0.00020196</v>
+        <v>0.20196</v>
       </c>
     </row>
     <row r="461">
@@ -9583,7 +9583,7 @@
         <v>0.075</v>
       </c>
       <c r="F461" t="n">
-        <v>0.000168</v>
+        <v>0.168</v>
       </c>
     </row>
     <row r="462">
@@ -9603,7 +9603,7 @@
         <v>0.06</v>
       </c>
       <c r="F462" t="n">
-        <v>0.00013824</v>
+        <v>0.13824</v>
       </c>
     </row>
     <row r="463">
@@ -9623,7 +9623,7 @@
         <v>0.045</v>
       </c>
       <c r="F463" t="n">
-        <v>0.00010314</v>
+        <v>0.10314</v>
       </c>
     </row>
     <row r="464">
@@ -9643,7 +9643,7 @@
         <v>0.03</v>
       </c>
       <c r="F464" t="n">
-        <v>6.888e-05</v>
+        <v>0.06888000000000001</v>
       </c>
     </row>
     <row r="465">
@@ -9663,7 +9663,7 @@
         <v>0.015</v>
       </c>
       <c r="F465" t="n">
-        <v>3.557999999999999e-05</v>
+        <v>0.03557999999999999</v>
       </c>
     </row>
     <row r="466">
